--- a/testData/ReadData.xlsx
+++ b/testData/ReadData.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c.nagappa.hadimani\eclipse-workspace\OpencartV121\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8f9eb6a56641bd7a/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED2EA8BC-C424-483A-8847-67160617EEBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="13_ncr:1_{ED2EA8BC-C424-483A-8847-67160617EEBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8FEA95B2-9494-49E2-B2A7-60832F93B7CC}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
   <si>
     <t>Username</t>
   </si>
@@ -64,6 +65,99 @@
   </si>
   <si>
     <t>invalid</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Address1</t>
+  </si>
+  <si>
+    <t>Address2</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>PostCode</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Pavan</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Rolls-Royce</t>
+  </si>
+  <si>
+    <t>Add1</t>
+  </si>
+  <si>
+    <t>Add2</t>
+  </si>
+  <si>
+    <t>Pune</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Karnataka</t>
+  </si>
+  <si>
+    <t>Chandan</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>Bang</t>
+  </si>
+  <si>
+    <t>Girish</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>OnePlus</t>
+  </si>
+  <si>
+    <t>Add3</t>
+  </si>
+  <si>
+    <t>Add4</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>Hemanth</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Add5</t>
   </si>
 </sst>
 </file>
@@ -425,19 +519,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.08984375" customWidth="1"/>
-    <col min="2" max="2" width="18.26953125" customWidth="1"/>
-    <col min="3" max="3" width="9.90625" customWidth="1"/>
-    <col min="4" max="4" width="5.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" customWidth="1"/>
+    <col min="2" max="2" width="18.21875" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" customWidth="1"/>
+    <col min="4" max="4" width="5.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -448,7 +542,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -459,7 +553,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -470,7 +564,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -481,7 +575,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -492,7 +586,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -503,7 +597,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>11</v>
@@ -524,4 +618,174 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD9EB8B6-4EAB-4353-9E00-E89D3BA0A047}">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.21875" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="1">
+        <v>123456</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="1">
+        <v>321456</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="1">
+        <v>678123</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="1">
+        <v>987654</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/testData/ReadData.xlsx
+++ b/testData/ReadData.xlsx
@@ -1,22 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8f9eb6a56641bd7a/Desktop/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="13_ncr:1_{ED2EA8BC-C424-483A-8847-67160617EEBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8FEA95B2-9494-49E2-B2A7-60832F93B7CC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{EE3BC125-44FB-40FD-8714-CCAEFFAF5794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:V28"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="47">
   <si>
     <t>Username</t>
   </si>
@@ -158,6 +155,15 @@
   </si>
   <si>
     <t>Add5</t>
+  </si>
+  <si>
+    <t>snh@gmail.com</t>
+  </si>
+  <si>
+    <t>test@123</t>
+  </si>
+  <si>
+    <t>Invalid</t>
   </si>
 </sst>
 </file>
@@ -520,7 +526,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -624,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD9EB8B6-4EAB-4353-9E00-E89D3BA0A047}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -788,4 +794,63 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A2151DD-12E8-4E29-9695-99134DB616CE}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.109375" customWidth="1"/>
+    <col min="2" max="2" width="18.21875" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{903998E6-5648-40B9-BB57-445C3CEF1C21}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{B616FE64-53B4-4ACE-B22D-034BCE24634B}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{04055754-580F-4F16-8DC6-A712F229A40A}"/>
+    <hyperlink ref="B3" r:id="rId4" xr:uid="{F244FBCD-C862-4E09-9498-028323E14B8E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>